--- a/time_tables/full_time_undergraduate/lovs_2_kurs.xlsx
+++ b/time_tables/full_time_undergraduate/lovs_2_kurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2 -е полугодие с 13.01.- 18.01." sheetId="121" r:id="rId1"/>
@@ -667,8 +667,833 @@
 </t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">ауд.10 ИМиСТ
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ
+(к.п.н., доцент Лубкин Ю.В.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ауд.426
+Лекция
+ФИЛОСОФИЯ
+(к.ф.н., доцент Медведева О.А.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.223
+Лекция
+БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
+(к.п.н., доцент Дьяченко Н.А.)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ауд.14
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ
+(к.п.н., доцент Лубкин Ю.В.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ауд.421
+Лекция
+ФИЛОСОФИЯ
+(д.ф.н., профессор Оганян К.М.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.01.
+</t>
+  </si>
+  <si>
+    <t>ауд.223
+Лекция
+БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
+(к.п.н., доцент Дьяченко Н.А.)</t>
+  </si>
+  <si>
+    <t>ауд.409
+Лекция
+ФИЗИОЛОГИЯ ЧЕЛОВЕКА
+(к.б.н., доцент Селиверстова В.В.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">
- ауд.423
+5-й зал 
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
+  </si>
+  <si>
+    <t>ауд.426
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Белогородцева Э.И.)</t>
+  </si>
+  <si>
+    <t>ауд.409
+Лекция
+ФИЗИОЛОГИЯ ЧЕЛОВЕКА
+(д.п.н., доцент Селитреникова Т.А.)</t>
+  </si>
+  <si>
+    <t>Бассейн в 13:20
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(к.п.н.,доцент Привалов А.В.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(Рооп А.А.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+ауд.426
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(к.п.н. доцент Михайлова Д.А.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(к.п.н., доцент Литвинов А.А.)</t>
+  </si>
+  <si>
+    <t>5-й зал
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(Малаховский А.С., Хильченко А.Д.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н.,доцент Привалов А.В.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.01.
+</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(к.п.н.,доцен Семибратова И.С., Мальнева А.С.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
+  </si>
+  <si>
+    <t>ауд.119
+Лекция
+БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
+(к.п.н., доцент Дьяченко Н.А.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н.,доцен Семибратова И.С., Мальнева А.С.)</t>
+  </si>
+  <si>
+    <t>Бассейн в 11:20
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(Малаховский А.С., Хильченко А.Д.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра
+ТиМИВС
+(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5-й зал
+ ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
+  </si>
+  <si>
+    <t>ауд.8 ИМиСТ
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., доцент Гомзякова И.П.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(к.п.н., доцент Зайко Д.С., к.п.н., доцент Колесников А.В.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(Рооп А.А.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5-й зал ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Только 15.01.
+Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра
+Элективные дисциплины по ФКиС
+</t>
+  </si>
+  <si>
+    <t>ауд.119
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(д.п.н., профессор Рыбьякова Т.В.)</t>
+  </si>
+  <si>
+    <t>Бассейн в 15:10
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.01.
+</t>
+  </si>
+  <si>
+    <t>Бассейн в 8:40
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t>ауд.409 
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Белогородцева Э.И.)</t>
+  </si>
+  <si>
+    <t>ауд. 8 ИМиСТ
+Лекция
+ЭКОНОМИКА ФКиС
+(Смирнов И.Ф.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Бассейн в 13:20
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(Мальнева А.С., к.п.н., доцент Руденко С.А.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ауд.419
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(к.п.н. доцент Михайлова Д.А.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.419
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(к.п.н. доцент Михайлова Д.А.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17.01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТиМИВС
+(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+ТиМИВС
+(к.п.н., доцент Литвинов А.А.)</t>
+  </si>
+  <si>
+    <t>Кафедра
+Элективные дисциплины по ФКиС
+(к.п.н., доцент Литвинов А.А.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кафедра
+ТиМИВС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кафедра
+ТиМИВС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Малаховский А.С., Хильченко А.Д.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">18.01.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кафедра
+ТиМИВС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(к.п.н., доцент Литвинов А.А.)</t>
+    </r>
+  </si>
+  <si>
+    <t>ауд.409
+Лекция
+ФИЗИОЛОГИЯ ЧЕЛОВЕКА
+(д.б.н., доцент Щедрина Ю.А.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кафедра
+Элективные дисциплины по ФКиС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ТиМИВС
+(к.п.н., доцент Литвинов А.А.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кафедра
+Элективные дисциплины по ФКиС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(к.п.н., доцент Литвинов А.А.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ауд.119
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(к.п.н. доцент Михайлова Д.А.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовано 
+Начальник УМЦ                   _____________________   М.А.Утеганова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          
+Составила специалист       _____________________ Н.А. Догонова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20.01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.305
+Лекция
+ЭКОНОМИКА ФКиС
+(к.э.н., доцент Андросова Г.А.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ауд.409
+Лекция
+ФИЗИОЛОГИЯ ЧЕЛОВЕКА
+(к.б.н., доцент Селиверстова В.В.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Бассейн в 11:20
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ауд.10 ИМиСТ
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(к.п.н., доцент Кууз Р.В.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд.119
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(к.п.н., доцент Петряев А.В.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд.305
+Лекция
+ЭКОНОМИКА ФКиС
+(к.э.н., доцент Андросова Г.А.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд.119
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(д.п.н., профессор Рыбьякова Т.В.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21.01.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+ауд.150
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(Мещерякова Н.Ю.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+22.01.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.312
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(Мещерякова Н.Ю.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ауд.312
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(Мещерякова Н.Ю.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23.01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.8 ИМиСТ
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Белогородцева Э.И.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.150
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(Мещерякова Н.Ю.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.8 ИМиСТ 
+Лекция
+ЭКОНОМИКА ФКиС
+(Смирнов И.Ф.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ауд.150
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(Мещерякова Н.Ю.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+24.01.
+</t>
+  </si>
+  <si>
+    <t>ауд.423
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., доцент Гомзякова И.П.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25.01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+27.01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд.421
+Лекция
+ТЕОРИЯ и МЕТОДИКА ФК
+(к.п.н., доцент Сафронова М.А.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.423
+Лекция
+ЭКОНОМИКА ФКиС
+(к.э.н., доцент Андросова Г.А.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  ауд.409
+Лекция
+ФИЗИОЛОГИЯ ЧЕЛОВЕКА
+(к.б.н., доцент Селиверстова В.В.)</t>
+  </si>
+  <si>
+    <t>ауд.119
+Лекция
+ФИЛОСОФИЯ
+(д.ф.н., профессор Оганян К.М.)</t>
+  </si>
+  <si>
+    <t>ауд.423
+Лекция
+ТЕОРИЯ и МЕТОДИКА ФК
+(к.п.н., доцент Латышева Н.Е.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+28.01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.421
+Лекция
+ТЕОРИЯ и МЕТОДИКА ФК
+(к.п.н., доцент Титорова О.Н.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+29.01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+30.01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ауд.8 ИМиСТ 
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Белогородцева Э.И.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+31.01.</t>
+  </si>
+  <si>
+    <t>18.01.
+25.01.
+01.02.</t>
+  </si>
+  <si>
+    <t>Зал №2
+Кафедра
+Элективные дисциплины по ФКиС</t>
+  </si>
+  <si>
+    <t>ауд.87
+ТиМИВС
+(к.п.н., доцент Зайко Д.С., к.п.н., доцент Колесников А.В.)</t>
+  </si>
+  <si>
+    <t>Зал №2
+Элективные дисциплины по ФКиС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.8 ИМиСТ
+Лекция
+ФИЛОСОФИЯ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ ауд.305
 Лекция
 ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
 (к.п.н., доцент Кууз Р.В.)
@@ -677,7 +1502,7 @@
   <si>
     <r>
       <t xml:space="preserve">
-ауд.423
+ауд.305
 Лекция
 </t>
     </r>
@@ -707,24 +1532,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ауд.423
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(к.п.н., доцент Петряев А.В.)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.10 ИМиСТ
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ
-(к.п.н., доцент Лубкин Ю.В.)
+    <r>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="28"/>
+        <sz val="33"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.10 ИМиСТ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+Академическая разница
+БЖД
+(к.п.н. доцент Михайлова Д.А.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="33"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -735,7 +1576,25 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> ауд.10 ИМиСТ
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ауд.1 ИМиСТ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 Лекция
  ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ
 (к.п.н., доцент Лубкин Ю.В.)
@@ -755,842 +1614,68 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
- ауд.423
-Лекция
-Академическая разница
-БЖД
-(к.п.н. доцент Михайлова Д.А.)
-</t>
-    </r>
-    <r>
       <rPr>
         <b/>
-        <sz val="33"/>
+        <sz val="28"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.1 ИМиСТ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(к.п.н., доцент Петряев А.В.)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.409
+Лекция
+ПЕДАГОГИКА ФКиС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>ауд.426
+      <t>(к.п.н., профессор Белогородцева Э.И.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ауд.223
 Лекция
-ФИЛОСОФИЯ
-(к.ф.н., доцент Медведева О.А.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.223
-Лекция
-БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
-(к.п.н., доцент Дьяченко Н.А.)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ауд.14
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ
-(к.п.н., доцент Лубкин Ю.В.)
+ПЕДАГОГИКА ФКиС
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="28"/>
+        <sz val="36"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>ауд.421
-Лекция
-ФИЛОСОФИЯ
-(д.ф.н., профессор Оганян К.М.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.01.
-</t>
-  </si>
-  <si>
-    <t>ауд.223
-Лекция
-БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
-(к.п.н., доцент Дьяченко Н.А.)</t>
-  </si>
-  <si>
-    <t>ауд.409
-Лекция
-ФИЗИОЛОГИЯ ЧЕЛОВЕКА
-(к.б.н., доцент Селиверстова В.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5-й зал 
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
-  </si>
-  <si>
-    <t>ауд.426
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Белогородцева Э.И.)</t>
-  </si>
-  <si>
-    <t>ауд.409
-Лекция
-ФИЗИОЛОГИЯ ЧЕЛОВЕКА
-(д.п.н., доцент Селитреникова Т.А.)</t>
-  </si>
-  <si>
-    <t>Бассейн в 13:20
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(к.п.н.,доцент Привалов А.В.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(Рооп А.А.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-ауд.426
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(к.п.н. доцент Михайлова Д.А.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(к.п.н., доцент Литвинов А.А.)</t>
-  </si>
-  <si>
-    <t>5-й зал
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(Малаховский А.С., Хильченко А.Д.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н.,доцент Привалов А.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.01.
-</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(к.п.н.,доцен Семибратова И.С., Мальнева А.С.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
-  </si>
-  <si>
-    <t>ауд.119
-Лекция
-БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
-(к.п.н., доцент Дьяченко Н.А.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н.,доцен Семибратова И.С., Мальнева А.С.)</t>
-  </si>
-  <si>
-    <t>Бассейн в 11:20
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(Малаховский А.С., Хильченко А.Д.)</t>
-  </si>
-  <si>
-    <t>ауд.409
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Кожевникова Н.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кафедра
-ТиМИВС
-(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5-й зал
- ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
-  </si>
-  <si>
-    <t>ауд.8 ИМиСТ
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., доцент Гомзякова И.П.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(к.п.н., доцент Зайко Д.С., к.п.н., доцент Колесников А.В.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(Рооп А.А.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5-й зал ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: БАСКЕТБОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Только 15.01.
-Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кафедра
-Элективные дисциплины по ФКиС
-</t>
-  </si>
-  <si>
-    <t>ауд.119
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(д.п.н., профессор Рыбьякова Т.В.)</t>
-  </si>
-  <si>
-    <t>Бассейн в 15:10
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.01.
-</t>
-  </si>
-  <si>
-    <t>Бассейн в 8:40
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t>ауд.409 
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Белогородцева Э.И.)</t>
-  </si>
-  <si>
-    <t>ауд. 8 ИМиСТ
-Лекция
-ЭКОНОМИКА ФКиС
-(Смирнов И.Ф.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Бассейн в 13:20
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
-  </si>
-  <si>
-    <t>Кафедра
-ТиМИВС
-(Мальнева А.С., к.п.н., доцент Руденко С.А.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ауд.419
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(к.п.н. доцент Михайлова Д.А.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.419
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(к.п.н. доцент Михайлова Д.А.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">17.01.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТиМИВС
-(к.п.н., доцент Сивицкий В.А., Скржинский А.М., к.п.н. доцент Айзятулова Г.Р., Терехин В.С.) </t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-ТиМИВС
-(к.п.н., доцент Литвинов А.А.)</t>
-  </si>
-  <si>
-    <t>Кафедра
-Элективные дисциплины по ФКиС
-(к.п.н., доцент Литвинов А.А.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Кафедра
-ТиМИВС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(к.п.н., доцент Кожемякин К.А., к.пс.н., доцент Лубкин Ю.В., Мокина Е.И.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Кафедра
-ТиМИВС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Малаховский А.С., Хильченко А.Д.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Кафедра
-ТиМИВС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(к.п.н., доцент Литвинов А.А.)</t>
-    </r>
-  </si>
-  <si>
-    <t>ауд.409
-Лекция
-ФИЗИОЛОГИЯ ЧЕЛОВЕКА
-(д.б.н., доцент Щедрина Ю.А.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Кафедра
-Элективные дисциплины по ФКиС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ТиМИВС
-(к.п.н., доцент Литвинов А.А.)</t>
-    </r>
-  </si>
-  <si>
-    <t>ауд.223
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Кожевникова Н.В.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Кафедра
-Элективные дисциплины по ФКиС
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(к.п.н., доцент Литвинов А.А.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ауд.119
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(к.п.н. доцент Михайлова Д.А.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовано 
-Начальник УМЦ                   _____________________   М.А.Утеганова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          
-Составила специалист       _____________________ Н.А. Догонова                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-20.01.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.305
-Лекция
-ЭКОНОМИКА ФКиС
-(к.э.н., доцент Андросова Г.А.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- ауд.409
-Лекция
-ФИЗИОЛОГИЯ ЧЕЛОВЕКА
-(к.б.н., доцент Селиверстова В.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Бассейн в 11:20
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- ауд.10 ИМиСТ
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(к.п.н., доцент Кууз Р.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд.119
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(к.п.н., доцент Петряев А.В.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд.305
-Лекция
-ЭКОНОМИКА ФКиС
-(к.э.н., доцент Андросова Г.А.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд.119
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(д.п.н., профессор Рыбьякова Т.В.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-21.01.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-ауд.150
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(Мещерякова Н.Ю.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-22.01.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.312
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(Мещерякова Н.Ю.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ауд.312
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(Мещерякова Н.Ю.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-23.01.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.8 ИМиСТ
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Белогородцева Э.И.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ауд.150
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(Мещерякова Н.Ю.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.8 ИМиСТ 
-Лекция
-ЭКОНОМИКА ФКиС
-(Смирнов И.Ф.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ауд.150
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(Мещерякова Н.Ю.)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-24.01.
-</t>
-  </si>
-  <si>
-    <t>ауд.423
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., доцент Гомзякова И.П.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-25.01.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-27.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд.421
-Лекция
-ТЕОРИЯ и МЕТОДИКА ФК
-(к.п.н., доцент Сафронова М.А.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.423
-Лекция
-ЭКОНОМИКА ФКиС
-(к.э.н., доцент Андросова Г.А.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  ауд.409
-Лекция
-ФИЗИОЛОГИЯ ЧЕЛОВЕКА
-(к.б.н., доцент Селиверстова В.В.)</t>
-  </si>
-  <si>
-    <t>ауд.119
-Лекция
-ФИЛОСОФИЯ
-(д.ф.н., профессор Оганян К.М.)</t>
-  </si>
-  <si>
-    <t>ауд.423
-Лекция
-ТЕОРИЯ и МЕТОДИКА ФК
-(к.п.н., доцент Латышева Н.Е.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-28.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.421
-Лекция
-ТЕОРИЯ и МЕТОДИКА ФК
-(к.п.н., доцент Титорова О.Н.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-29.01.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-30.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.8 ИМиСТ 
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Белогородцева Э.И.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-31.01.</t>
-  </si>
-  <si>
-    <t>18.01.
-25.01.
-01.02.</t>
-  </si>
-  <si>
-    <t>Зал №2
-Кафедра
-Элективные дисциплины по ФКиС</t>
-  </si>
-  <si>
-    <t>ауд.87
-ТиМИВС
-(к.п.н., доцент Зайко Д.С., к.п.н., доцент Колесников А.В.)</t>
-  </si>
-  <si>
-    <t>Зал №2
-Элективные дисциплины по ФКиС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.8 ИМиСТ
-Лекция
-ФИЛОСОФИЯ
-</t>
+      <t>(к.п.н., профессор Белогородцева Э.И.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1600,7 +1685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +2033,22 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2742,6 +2843,30 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2754,8 +2879,50 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2775,9 +2942,36 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2803,99 +2997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3223,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -3249,70 +3350,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="71" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
     </row>
     <row r="2" spans="1:30" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:30" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:30" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -3352,9 +3453,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="192" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="125"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="56" t="s">
         <v>15</v>
       </c>
@@ -3470,10 +3571,10 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="135" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -3488,12 +3589,12 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="148" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
+      <c r="M8" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -3510,8 +3611,8 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" s="13" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="73" t="s">
         <v>10</v>
       </c>
@@ -3523,12 +3624,12 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="149" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
+      <c r="M9" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -3545,28 +3646,28 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="1:30" s="13" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="106"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="42"/>
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
+      <c r="M10" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="W10" s="12"/>
@@ -3579,30 +3680,30 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="1:30" s="13" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="106"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="150" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
+      <c r="D11" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
+      <c r="H11" s="143" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
       <c r="L11" s="50"/>
-      <c r="M11" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="147"/>
+      <c r="M11" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="131"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="W11" s="12"/>
@@ -3615,23 +3716,23 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" s="13" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="D12" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="H12" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
       <c r="L12" s="50"/>
       <c r="M12" s="82"/>
       <c r="N12" s="68"/>
@@ -3649,16 +3750,16 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:30" s="13" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
+      <c r="D13" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="39"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -3705,10 +3806,10 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="1:30" s="13" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="132" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="72" t="s">
@@ -3718,12 +3819,12 @@
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+      <c r="H15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="41"/>
       <c r="M15" s="82"/>
       <c r="O15" s="69"/>
@@ -3746,27 +3847,27 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="1:30" s="11" customFormat="1" ht="265.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="129" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+      <c r="H16" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="50"/>
       <c r="M16" s="30"/>
       <c r="N16" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="68" t="s">
@@ -3786,32 +3887,32 @@
       <c r="AD16" s="10"/>
     </row>
     <row r="17" spans="1:30" s="13" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="130" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="H17" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="40"/>
       <c r="M17" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="Y17" s="12"/>
@@ -3822,32 +3923,32 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="1:30" s="13" customFormat="1" ht="268.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="106"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
+      <c r="D18" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="39"/>
       <c r="H18" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J18" s="96" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="83" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O18" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P18" s="69"/>
       <c r="Q18" s="12"/>
@@ -3859,8 +3960,8 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="1:30" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="74" t="s">
         <v>13</v>
       </c>
@@ -3925,37 +4026,37 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="1:30" s="13" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="108" t="s">
+      <c r="A21" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="82"/>
       <c r="G21" s="44"/>
       <c r="H21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L21" s="39"/>
-      <c r="M21" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
+      <c r="M21" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -3972,38 +4073,38 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="1:30" s="13" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
+      <c r="M22" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="111"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -4020,37 +4121,37 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="1:30" s="11" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G23" s="47"/>
-      <c r="H23" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="H23" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="39"/>
       <c r="M23" s="83" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O23" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P23" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -4068,37 +4169,37 @@
       <c r="AD23" s="10"/>
     </row>
     <row r="24" spans="1:30" s="11" customFormat="1" ht="270.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G24" s="45"/>
-      <c r="H24" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
+      <c r="H24" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
       <c r="L24" s="48"/>
       <c r="M24" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O24" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P24" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -4116,8 +4217,8 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="1:30" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="74" t="s">
         <v>13</v>
       </c>
@@ -4174,20 +4275,20 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="1:30" s="13" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G27" s="38"/>
       <c r="I27" s="86"/>
@@ -4196,7 +4297,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P27" s="83" t="s">
         <v>40</v>
@@ -4216,29 +4317,29 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="1:30" s="13" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
+      <c r="D28" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="123"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="38"/>
       <c r="H28" s="69"/>
       <c r="I28" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="50"/>
       <c r="N28" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O28" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P28" s="83" t="s">
         <v>40</v>
@@ -4259,31 +4360,31 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="1:30" s="13" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="134"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
+      <c r="D29" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="38"/>
       <c r="H29" s="69"/>
       <c r="I29" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J29" s="70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="50"/>
       <c r="M29" s="83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N29" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O29" s="69"/>
       <c r="Q29" s="12"/>
@@ -4302,30 +4403,30 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="1:30" s="11" customFormat="1" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="134"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G30" s="47"/>
-      <c r="H30" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="132"/>
+      <c r="H30" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
       <c r="L30" s="39"/>
       <c r="M30" s="68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N30" s="69"/>
       <c r="O30" s="69"/>
@@ -4346,24 +4447,24 @@
       <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" s="11" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
+      <c r="D31" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
       <c r="G31" s="77"/>
       <c r="H31" s="30"/>
       <c r="I31" s="69"/>
       <c r="J31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L31" s="39"/>
       <c r="M31" s="59"/>
@@ -4386,8 +4487,8 @@
       <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="135"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="74" t="s">
         <v>38</v>
       </c>
@@ -4398,10 +4499,10 @@
       <c r="H32" s="30"/>
       <c r="I32" s="69"/>
       <c r="J32" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="68" t="s">
         <v>69</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>74</v>
       </c>
       <c r="L32" s="39"/>
       <c r="M32" s="90"/>
@@ -4456,31 +4557,31 @@
       <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="1:62" s="13" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="108" t="s">
+      <c r="A34" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="116" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G34" s="41"/>
-      <c r="H34" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
+      <c r="H34" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
       <c r="L34" s="41"/>
       <c r="M34" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O34" s="100"/>
       <c r="P34" s="69"/>
@@ -4495,33 +4596,33 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:62" s="13" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35" s="40"/>
-      <c r="H35" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="H35" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="40"/>
       <c r="M35" s="68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N35" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P35" s="69"/>
       <c r="Q35" s="12"/>
@@ -4540,40 +4641,40 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="1:62" s="13" customFormat="1" ht="284.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E36" s="99" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="46"/>
       <c r="H36" s="83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K36" s="83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L36" s="44"/>
       <c r="N36" s="83" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O36" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P36" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -4591,8 +4692,8 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="1:62" s="13" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="73" t="s">
         <v>12</v>
       </c>
@@ -4601,16 +4702,16 @@
       <c r="G37" s="48"/>
       <c r="H37" s="19"/>
       <c r="J37" s="83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="19"/>
       <c r="N37" s="69"/>
       <c r="O37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P37" s="68" t="s">
         <v>41</v>
@@ -4631,8 +4732,8 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="1:62" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="74" t="s">
         <v>13</v>
       </c>
@@ -4694,37 +4795,37 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="1:62" s="13" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="108" t="s">
+      <c r="A40" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="128"/>
+      <c r="M40" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
@@ -4736,37 +4837,37 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="1:62" s="13" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="106"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I41" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K41" s="68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L41" s="53"/>
-      <c r="M41" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
+      <c r="M41" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
       <c r="Q41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
@@ -4779,33 +4880,33 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="1:62" s="13" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J42" s="69"/>
       <c r="K42" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="132"/>
+      <c r="M42" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="111"/>
       <c r="Q42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
@@ -4818,8 +4919,8 @@
       <c r="AD42" s="12"/>
     </row>
     <row r="43" spans="1:62" s="13" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
-      <c r="B43" s="108"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="73" t="s">
         <v>12</v>
       </c>
@@ -4827,20 +4928,20 @@
       <c r="F43" s="19"/>
       <c r="G43" s="40"/>
       <c r="H43" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="69"/>
       <c r="L43" s="48"/>
-      <c r="M43" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="N43" s="131"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="132"/>
+      <c r="M43" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="N43" s="110"/>
+      <c r="O43" s="110"/>
+      <c r="P43" s="111"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
@@ -4857,8 +4958,8 @@
       <c r="AD43" s="12"/>
     </row>
     <row r="44" spans="1:62" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="74" t="s">
         <v>13</v>
       </c>
@@ -4891,8 +4992,8 @@
       <c r="AD44" s="12"/>
     </row>
     <row r="45" spans="1:62" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="74" t="s">
         <v>38</v>
       </c>
@@ -4955,24 +5056,24 @@
       <c r="AD46" s="12"/>
     </row>
     <row r="47" spans="1:62" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
+      <c r="A47" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
       <c r="Q47" s="78"/>
       <c r="R47" s="78"/>
       <c r="S47" s="78"/>
@@ -5298,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:K17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -5324,70 +5425,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="71" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
     </row>
     <row r="2" spans="1:30" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:30" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:30" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -5427,9 +5528,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="192" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="125"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="56" t="s">
         <v>15</v>
       </c>
@@ -5545,10 +5646,10 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="135" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="87" t="s">
@@ -5583,8 +5684,8 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" s="13" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="73" t="s">
         <v>10</v>
       </c>
@@ -5596,12 +5697,12 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="149" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
+      <c r="M9" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -5618,30 +5719,30 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="1:30" s="13" customFormat="1" ht="245.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="106"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="42"/>
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L10" s="42"/>
-      <c r="M10" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
+      <c r="M10" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="W10" s="12"/>
@@ -5654,30 +5755,30 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="1:30" s="13" customFormat="1" ht="251.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="106"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
+      <c r="D11" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="153" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
+      <c r="H11" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="145"/>
       <c r="L11" s="50"/>
-      <c r="M11" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="147"/>
+      <c r="M11" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="131"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="W11" s="12"/>
@@ -5690,23 +5791,23 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" s="13" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="D12" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="H12" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
       <c r="L12" s="50"/>
       <c r="M12" s="82"/>
       <c r="N12" s="68"/>
@@ -5724,16 +5825,16 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:30" s="13" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
+      <c r="D13" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="39"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
@@ -5780,10 +5881,10 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="1:30" s="13" customFormat="1" ht="269.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="132" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="87" t="s">
@@ -5793,16 +5894,16 @@
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+      <c r="H15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="41"/>
       <c r="M15" s="82"/>
       <c r="O15" s="94" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P15" s="97" t="s">
         <v>40</v>
@@ -5823,30 +5924,30 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="1:30" s="11" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="129" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+      <c r="H16" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="50"/>
       <c r="M16" s="30"/>
       <c r="N16" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O16" s="94" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P16" s="68" t="s">
         <v>41</v>
@@ -5865,32 +5966,32 @@
       <c r="AD16" s="10"/>
     </row>
     <row r="17" spans="1:30" s="13" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="130" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="H17" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="40"/>
       <c r="M17" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="Y17" s="12"/>
@@ -5901,8 +6002,8 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="1:30" s="13" customFormat="1" ht="288" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="106"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="73" t="s">
         <v>12</v>
       </c>
@@ -5911,26 +6012,26 @@
       <c r="F18" s="59"/>
       <c r="G18" s="39"/>
       <c r="H18" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I18" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J18" s="96" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="83" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O18" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P18" s="69"/>
       <c r="Q18" s="12"/>
@@ -5942,8 +6043,8 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="1:30" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="74" t="s">
         <v>13</v>
       </c>
@@ -6008,42 +6109,42 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="1:30" s="13" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="108" t="s">
+      <c r="A21" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="44"/>
       <c r="H21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K21" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -6060,40 +6161,40 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="1:30" s="13" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
+      <c r="M22" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="111"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -6110,39 +6211,39 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="1:30" s="11" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G23" s="47"/>
-      <c r="H23" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="H23" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="39"/>
       <c r="M23" s="83" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O23" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P23" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -6160,19 +6261,19 @@
       <c r="AD23" s="10"/>
     </row>
     <row r="24" spans="1:30" s="11" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="59"/>
@@ -6181,16 +6282,16 @@
       <c r="K24" s="59"/>
       <c r="L24" s="48"/>
       <c r="M24" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O24" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P24" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -6208,8 +6309,8 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="1:30" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="74" t="s">
         <v>13</v>
       </c>
@@ -6266,20 +6367,20 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="1:30" s="13" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G27" s="38"/>
       <c r="I27" s="86"/>
@@ -6288,7 +6389,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P27" s="83" t="s">
         <v>40</v>
@@ -6308,31 +6409,31 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="1:30" s="13" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="138" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
+      <c r="D28" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="123"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="38"/>
       <c r="H28" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I28" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="50"/>
       <c r="N28" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O28" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P28" s="83" t="s">
         <v>40</v>
@@ -6353,31 +6454,31 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="1:30" s="13" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="134"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
+      <c r="D29" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="38"/>
       <c r="H29" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J29" s="102"/>
       <c r="K29" s="19"/>
       <c r="L29" s="50"/>
       <c r="M29" s="83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N29" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O29" s="69"/>
       <c r="Q29" s="12"/>
@@ -6396,19 +6497,19 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="1:30" s="11" customFormat="1" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="134"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="69"/>
@@ -6417,7 +6518,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="39"/>
       <c r="M30" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N30" s="69"/>
       <c r="O30" s="69"/>
@@ -6438,8 +6539,8 @@
       <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" s="11" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="74" t="s">
         <v>13</v>
       </c>
@@ -6450,14 +6551,14 @@
       <c r="H31" s="30"/>
       <c r="I31" s="69"/>
       <c r="J31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L31" s="39"/>
       <c r="M31" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
@@ -6478,8 +6579,8 @@
       <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="238.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="135"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="74" t="s">
         <v>38</v>
       </c>
@@ -6490,10 +6591,10 @@
       <c r="H32" s="30"/>
       <c r="I32" s="69"/>
       <c r="J32" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="68" t="s">
         <v>69</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>74</v>
       </c>
       <c r="L32" s="39"/>
       <c r="M32" s="94"/>
@@ -6548,35 +6649,35 @@
       <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="1:62" s="13" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="108" t="s">
+      <c r="A34" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="116" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G34" s="41"/>
-      <c r="H34" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
+      <c r="H34" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
       <c r="L34" s="41"/>
       <c r="M34" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O34" s="69"/>
       <c r="P34" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="W34" s="12"/>
@@ -6589,36 +6690,36 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:62" s="13" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35" s="40"/>
-      <c r="H35" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="H35" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="40"/>
       <c r="M35" s="68" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N35" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P35" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -6636,45 +6737,45 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="1:62" s="13" customFormat="1" ht="288.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F36" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G36" s="46"/>
       <c r="H36" s="83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K36" s="83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N36" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O36" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P36" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -6692,30 +6793,30 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="1:62" s="13" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="19"/>
       <c r="F37" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="19"/>
       <c r="J37" s="83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="19"/>
       <c r="N37" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="O37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P37" s="68" t="s">
         <v>41</v>
@@ -6736,8 +6837,8 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="1:62" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="74" t="s">
         <v>13</v>
       </c>
@@ -6799,42 +6900,42 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="1:62" s="13" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="108" t="s">
+      <c r="A40" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J40" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="128"/>
+      <c r="M40" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
@@ -6846,40 +6947,40 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="1:62" s="13" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="106"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I41" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J41" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K41" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L41" s="53"/>
-      <c r="M41" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
+      <c r="M41" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
       <c r="Q41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
@@ -6892,35 +6993,35 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="1:62" s="13" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K42" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="132"/>
+      <c r="M42" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="111"/>
       <c r="Q42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
@@ -6933,8 +7034,8 @@
       <c r="AD42" s="12"/>
     </row>
     <row r="43" spans="1:62" s="13" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
-      <c r="B43" s="108"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="73" t="s">
         <v>12</v>
       </c>
@@ -6942,14 +7043,14 @@
       <c r="F43" s="19"/>
       <c r="G43" s="40"/>
       <c r="H43" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L43" s="48"/>
       <c r="M43" s="59"/>
@@ -6972,8 +7073,8 @@
       <c r="AD43" s="12"/>
     </row>
     <row r="44" spans="1:62" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="74" t="s">
         <v>13</v>
       </c>
@@ -7006,8 +7107,8 @@
       <c r="AD44" s="12"/>
     </row>
     <row r="45" spans="1:62" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="74" t="s">
         <v>38</v>
       </c>
@@ -7070,24 +7171,24 @@
       <c r="AD46" s="12"/>
     </row>
     <row r="47" spans="1:62" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
+      <c r="A47" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
       <c r="Q47" s="78"/>
       <c r="R47" s="78"/>
       <c r="S47" s="78"/>
@@ -7407,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="35" zoomScaleNormal="70" zoomScaleSheetLayoutView="35" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -7433,70 +7534,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="71" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
     </row>
     <row r="2" spans="1:30" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
     <row r="3" spans="1:30" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="119"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:30" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -7536,9 +7637,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="192" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="125"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="56" t="s">
         <v>15</v>
       </c>
@@ -7654,10 +7755,10 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="135" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="87" t="s">
@@ -7672,12 +7773,12 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
+      <c r="M8" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -7694,8 +7795,8 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" s="13" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="73" t="s">
         <v>10</v>
       </c>
@@ -7708,12 +7809,12 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
+      <c r="M9" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -7730,23 +7831,23 @@
       <c r="AD9" s="12"/>
     </row>
     <row r="10" spans="1:30" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="106"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="D10" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="153" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
+      <c r="H10" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="42"/>
       <c r="M10" s="59"/>
       <c r="N10" s="59"/>
@@ -7764,23 +7865,23 @@
       <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="1:30" s="13" customFormat="1" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="106"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
+      <c r="H11" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
       <c r="L11" s="50"/>
       <c r="M11" s="59"/>
       <c r="N11" s="59"/>
@@ -7798,16 +7899,16 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" s="13" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="130" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="D12" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="39"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -7830,8 +7931,8 @@
       <c r="AD12" s="12"/>
     </row>
     <row r="13" spans="1:30" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="74" t="s">
         <v>38</v>
       </c>
@@ -7884,31 +7985,31 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="1:30" s="13" customFormat="1" ht="269.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="132" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+      <c r="H15" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="41"/>
       <c r="M15" s="82"/>
       <c r="O15" s="94" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P15" s="97" t="s">
         <v>40</v>
@@ -7929,30 +8030,30 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="1:30" s="11" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="129" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+      <c r="H16" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="50"/>
       <c r="M16" s="30"/>
       <c r="N16" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O16" s="94" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P16" s="68" t="s">
         <v>41</v>
@@ -7971,32 +8072,32 @@
       <c r="AD16" s="10"/>
     </row>
     <row r="17" spans="1:30" s="13" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="130" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="H17" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="40"/>
       <c r="M17" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="Y17" s="12"/>
@@ -8007,8 +8108,8 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="1:30" s="13" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="106"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="73" t="s">
         <v>12</v>
       </c>
@@ -8017,26 +8118,26 @@
       <c r="F18" s="59"/>
       <c r="G18" s="39"/>
       <c r="H18" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I18" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J18" s="96" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="83" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O18" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P18" s="69"/>
       <c r="Q18" s="12"/>
@@ -8048,8 +8149,8 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="1:30" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="74" t="s">
         <v>13</v>
       </c>
@@ -8114,42 +8215,42 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="1:30" s="13" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="108" t="s">
+      <c r="A21" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="44"/>
       <c r="H21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J21" s="83" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K21" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -8166,40 +8267,40 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="1:30" s="13" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
+      <c r="M22" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="111"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -8216,39 +8317,39 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="1:30" s="11" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G23" s="47"/>
-      <c r="H23" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="H23" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="39"/>
       <c r="M23" s="83" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O23" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P23" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -8266,19 +8367,19 @@
       <c r="AD23" s="10"/>
     </row>
     <row r="24" spans="1:30" s="11" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="59"/>
@@ -8287,16 +8388,16 @@
       <c r="K24" s="59"/>
       <c r="L24" s="48"/>
       <c r="M24" s="98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N24" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O24" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P24" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -8314,8 +8415,8 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="1:30" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="74" t="s">
         <v>13</v>
       </c>
@@ -8372,20 +8473,20 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="1:30" s="13" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G27" s="38"/>
       <c r="I27" s="86"/>
@@ -8394,7 +8495,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P27" s="83" t="s">
         <v>40</v>
@@ -8414,31 +8515,31 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="1:30" s="13" customFormat="1" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
+      <c r="D28" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="123"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="38"/>
       <c r="H28" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I28" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="50"/>
       <c r="N28" s="70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O28" s="83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P28" s="83" t="s">
         <v>40</v>
@@ -8459,31 +8560,31 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="1:30" s="13" customFormat="1" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="134"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
+      <c r="D29" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="38"/>
       <c r="H29" s="103" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I29" s="104" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J29" s="102"/>
       <c r="K29" s="86"/>
       <c r="L29" s="50"/>
       <c r="M29" s="83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N29" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O29" s="69"/>
       <c r="Q29" s="12"/>
@@ -8502,19 +8603,19 @@
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="1:30" s="11" customFormat="1" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="134"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="69"/>
@@ -8523,7 +8624,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="39"/>
       <c r="M30" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N30" s="69"/>
       <c r="O30" s="69"/>
@@ -8544,8 +8645,8 @@
       <c r="AD30" s="10"/>
     </row>
     <row r="31" spans="1:30" s="11" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="74" t="s">
         <v>13</v>
       </c>
@@ -8556,14 +8657,14 @@
       <c r="H31" s="30"/>
       <c r="I31" s="69"/>
       <c r="J31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K31" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L31" s="39"/>
       <c r="M31" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
@@ -8584,8 +8685,8 @@
       <c r="AD31" s="10"/>
     </row>
     <row r="32" spans="1:30" s="11" customFormat="1" ht="273" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="135"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="74" t="s">
         <v>38</v>
       </c>
@@ -8596,10 +8697,10 @@
       <c r="H32" s="30"/>
       <c r="I32" s="69"/>
       <c r="J32" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="68" t="s">
         <v>69</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>74</v>
       </c>
       <c r="L32" s="39"/>
       <c r="M32" s="94"/>
@@ -8654,35 +8755,35 @@
       <c r="AD33" s="10"/>
     </row>
     <row r="34" spans="1:62" s="13" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="108" t="s">
+      <c r="A34" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="116" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G34" s="41"/>
-      <c r="H34" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
+      <c r="H34" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
       <c r="L34" s="41"/>
       <c r="M34" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O34" s="69"/>
       <c r="P34" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="W34" s="12"/>
@@ -8695,36 +8796,36 @@
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:62" s="13" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35" s="40"/>
-      <c r="H35" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="H35" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="40"/>
       <c r="M35" s="68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N35" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P35" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -8742,45 +8843,45 @@
       <c r="AD35" s="12"/>
     </row>
     <row r="36" spans="1:62" s="13" customFormat="1" ht="288.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F36" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G36" s="46"/>
       <c r="H36" s="83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J36" s="83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K36" s="83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="68" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N36" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="O36" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P36" s="96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -8798,29 +8899,29 @@
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="1:62" s="13" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
-      <c r="B37" s="108"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="19"/>
       <c r="F37" s="95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="19"/>
       <c r="J37" s="83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L37" s="40"/>
       <c r="N37" s="95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O37" s="96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P37" s="68" t="s">
         <v>41</v>
@@ -8841,8 +8942,8 @@
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="1:62" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="74" t="s">
         <v>13</v>
       </c>
@@ -8904,42 +9005,42 @@
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="1:62" s="13" customFormat="1" ht="284.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="108" t="s">
+      <c r="A40" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J40" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="128"/>
+      <c r="M40" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
@@ -8951,40 +9052,40 @@
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="1:62" s="13" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="106"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I41" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J41" s="94" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K41" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L41" s="53"/>
-      <c r="M41" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
+      <c r="M41" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
       <c r="Q41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
@@ -8997,35 +9098,35 @@
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="1:62" s="13" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="98" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K42" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="132"/>
+      <c r="M42" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="111"/>
       <c r="Q42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
@@ -9038,8 +9139,8 @@
       <c r="AD42" s="12"/>
     </row>
     <row r="43" spans="1:62" s="13" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
-      <c r="B43" s="108"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="73" t="s">
         <v>12</v>
       </c>
@@ -9047,14 +9148,14 @@
       <c r="F43" s="19"/>
       <c r="G43" s="40"/>
       <c r="H43" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L43" s="48"/>
       <c r="M43" s="59"/>
@@ -9077,8 +9178,8 @@
       <c r="AD43" s="12"/>
     </row>
     <row r="44" spans="1:62" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="74" t="s">
         <v>13</v>
       </c>
@@ -9111,8 +9212,8 @@
       <c r="AD44" s="12"/>
     </row>
     <row r="45" spans="1:62" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="107"/>
-      <c r="B45" s="108"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="74" t="s">
         <v>38</v>
       </c>
@@ -9175,24 +9276,24 @@
       <c r="AD46" s="12"/>
     </row>
     <row r="47" spans="1:62" s="81" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
+      <c r="A47" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
       <c r="Q47" s="78"/>
       <c r="R47" s="78"/>
       <c r="S47" s="78"/>
